--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>509</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>509</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>509</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>509</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>43700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>509</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>509</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Las Condes.xlsx
+++ b/data/Las Condes.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta G-21 S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>DIA "URBANIZACIÓN CALZADA SUR CALLE SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Fundación Club Deportivo Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
+          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
+          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>150719</v>
+        <v>950</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Equipamiento Deportivo y Recreativo El Remanso de Las Condes</t>
+          <t>Túnel Kennedy, entre Américo Vespucio - Rotonda Pérez Zujovic EXP 152/2011</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Cerro Apoquindo Ltda.</t>
+          <t>SOCIEDAD CONCESIONARIA COSTANERA NORTE S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>950</v>
+        <v>150719</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6229917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6236423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>65000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Jumbo-Easy Bilbao-Padre Hurtado (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>65000</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2193630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
